--- a/data/long_dif/P24_6-Edad-long_dif.xlsx
+++ b/data/long_dif/P24_6-Edad-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +675,82 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24,31%</t>
+          <t>24,3%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>17,52%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>27,88%</t>
+          <t>26,4%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>41,23%</t>
+          <t>28,18%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>18,9%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>35,36%</t>
+          <t>40,61%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>32,46%</t>
+          <t>22,21%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>34,69%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>31,6%</t>
+          <t>25,05%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>32,57%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>32,16%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>19,82%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>30,52%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>26,58%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>25,35%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,11; 32,94</t>
+          <t>17,76; 32,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,05; 23,45</t>
+          <t>9,5; 29,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,17; 38,28</t>
+          <t>18,06; 35,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>32,83; 51,16</t>
+          <t>16,24; 41,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,72; 31,08</t>
+          <t>8,38; 32,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>27,22; 44,4</t>
+          <t>32,03; 50,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,41; 38,87</t>
+          <t>15,28; 31,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,32; 24,69</t>
+          <t>26,41; 44,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>25,67; 37,98</t>
+          <t>16,85; 35,52</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>20,42; 46,76</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>26,17; 38,41</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>14,74; 27,09</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>24,55; 37,36</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>19,65; 35,14</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>17,04; 34,65</t>
         </is>
       </c>
     </row>
@@ -733,52 +841,82 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>54,27%</t>
+          <t>55,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>52,47%</t>
+          <t>53,15%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>47,0%</t>
+          <t>45,21%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>42,16%</t>
+          <t>40,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>48,15%</t>
+          <t>47,16%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>44,89%</t>
+          <t>42,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>48,44%</t>
+          <t>49,24%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>50,35%</t>
+          <t>45,58%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>45,95%</t>
+          <t>44,6%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>34,95%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>49,37%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>51,24%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>45,39%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>42,38%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>41,4%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>45,2; 63,56</t>
+          <t>46,09; 63,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>41,34; 62,83</t>
+          <t>41,01; 63,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36,85; 57,45</t>
+          <t>35,54; 56,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>32,94; 50,5</t>
+          <t>27,37; 55,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,59; 57,36</t>
+          <t>30,59; 63,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,05; 53,98</t>
+          <t>34,06; 51,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>42,14; 55,02</t>
+          <t>39,7; 58,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>43,18; 57,12</t>
+          <t>36,55; 53,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>39,55; 53,3</t>
+          <t>34,54; 54,12</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>22,59; 48,64</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>42,8; 55,93</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>43,63; 58,5</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>38,55; 51,76</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>34,3; 50,76</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>30,13; 52,68</t>
         </is>
       </c>
     </row>
@@ -839,52 +1007,82 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>21,42%</t>
+          <t>20,39%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>33,09%</t>
+          <t>29,32%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>25,13%</t>
+          <t>28,4%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>31,77%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>28,99%</t>
+          <t>33,94%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,75%</t>
+          <t>16,42%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>28,55%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>31,08%</t>
+          <t>19,73%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>22,45%</t>
+          <t>30,35%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>32,49%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>18,47%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>28,94%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>24,08%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>31,04%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>33,26%</t>
         </is>
       </c>
     </row>
@@ -897,104 +1095,160 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,49; 29,82</t>
+          <t>13,98; 28,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,61; 44,76</t>
+          <t>20,09; 40,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,5; 35,2</t>
+          <t>20,15; 39,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,6; 23,61</t>
+          <t>19,12; 46,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,27; 39,92</t>
+          <t>20,26; 50,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,92; 27,47</t>
+          <t>10,66; 23,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,2; 24,66</t>
+          <t>20,48; 38,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,63; 38,26</t>
+          <t>13,54; 27,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,0; 27,9</t>
+          <t>21,6; 39,88</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>20,5; 45,7</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>14,05; 23,67</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>22,33; 36,26</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>18,35; 30,23</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>23,26; 39,16</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>24,57; 44,8</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>29,61%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>35,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>30,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>27,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>32,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>30,63%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1261,164 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,43; 39,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,01; 31,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,93; 48,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,4; 43,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,94; 39,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,33; 34,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,81; 38,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,73; 32,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,39; 40,18</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>48,35%</t>
+          <t>29,83%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>39,5%</t>
+          <t>21,15%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>33,66%</t>
+          <t>33,16%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>39,74%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>45,97%</t>
+          <t>47,3%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>44,17%</t>
+          <t>35,26%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>44,14%</t>
+          <t>29,57%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>42,52%</t>
+          <t>27,42%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>38,59%</t>
+          <t>30,59%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>25,8%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>32,46%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>25,06%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>30,48%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>24,62%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>36,78%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1431,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>37,04; 59,78</t>
+          <t>20,78; 39,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>28,99; 51,93</t>
+          <t>14,69; 30,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>25,07; 43,86</t>
+          <t>24,2; 50,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>31,64; 49,69</t>
+          <t>10,82; 28,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>37,15; 54,64</t>
+          <t>25,41; 67,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>37,13; 51,55</t>
+          <t>27,24; 43,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>37,01; 51,83</t>
+          <t>21,67; 38,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,52; 49,39</t>
+          <t>21,42; 34,32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>32,26; 44,22</t>
+          <t>22,14; 39,79</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>17,66; 36,4</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>25,99; 38,77</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>18,99; 31,11</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>24,8; 39,04</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>17,77; 31,61</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>25,72; 51,99</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1509,82 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>49,42%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>38,74%</t>
+          <t>39,68%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>33,09%</t>
+          <t>33,56%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>24,9%</t>
+          <t>32,2%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>23,91%</t>
+          <t>37,1%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>28,18%</t>
+          <t>40,09%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>23,44%</t>
+          <t>45,82%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>31,82%</t>
+          <t>43,77%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>30,79%</t>
+          <t>37,2%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>44,88%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>44,91%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>42,53%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>38,33%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>34,45%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>40,91%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1597,160 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,8; 30,57</t>
+          <t>38,68; 61,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>28,38; 53,21</t>
+          <t>28,73; 53,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>24,04; 43,4</t>
+          <t>24,62; 42,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,6; 33,02</t>
+          <t>18,77; 45,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,81; 31,71</t>
+          <t>18,81; 61,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,25; 35,08</t>
+          <t>32,06; 49,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,32; 29,4</t>
+          <t>37,5; 54,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>24,74; 40,55</t>
+          <t>36,73; 50,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>24,57; 35,97</t>
+          <t>28,01; 46,32</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>34,15; 55,82</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>37,4; 53,83</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>34,34; 49,5</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>31,79; 44,02</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>25,91; 42,1</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>30,38; 52,93</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>34,04%</t>
+          <t>20,75%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>27,54%</t>
+          <t>39,17%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>29,3%</t>
+          <t>33,28%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>32,71%</t>
+          <t>48,09%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>30,35%</t>
+          <t>15,6%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>25,31%</t>
+          <t>24,65%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>33,39%</t>
+          <t>24,62%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>29,0%</t>
+          <t>28,81%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>27,25%</t>
+          <t>32,21%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>29,33%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>22,64%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>32,41%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>31,19%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>40,93%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>22,32%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1763,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>24,38; 45,73</t>
+          <t>13,03; 28,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>19,58; 39,41</t>
+          <t>28,46; 55,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>21,61; 39,12</t>
+          <t>24,47; 43,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>26,92; 40,67</t>
+          <t>33,74; 69,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>24,11; 36,34</t>
+          <t>6,9; 30,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,62; 30,16</t>
+          <t>17,77; 33,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>27,74; 40,77</t>
+          <t>17,94; 32,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>23,96; 35,67</t>
+          <t>22,24; 36,33</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>23,08; 32,57</t>
+          <t>23,22; 40,74</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>20,44; 38,76</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>17,66; 28,65</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>26,13; 43,65</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>25,1; 37,66</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>31,42; 54,68</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>15,06; 30,05</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1841,82 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>45,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>38,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>44,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>42,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>44,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>40,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>44,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>41,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>42,29%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1929,164 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>36,06; 58,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>30,86; 47,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>35,99; 52,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>36,64; 49,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>38,81; 51,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>35,52; 46,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>37,39; 51,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>36,39; 47,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>37,71; 47,44</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>20,28%</t>
+          <t>35,68%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>33,79%</t>
+          <t>28,24%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>26,7%</t>
+          <t>29,93%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>24,76%</t>
+          <t>26,54%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>24,94%</t>
+          <t>31,18%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>34,03%</t>
+          <t>31,99%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>30,46%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>29,19%</t>
+          <t>25,31%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>30,46%</t>
+          <t>32,03%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>22,71%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>33,84%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>29,4%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>27,56%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>29,42%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>27,22%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +2099,160 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>14,36; 26,62</t>
+          <t>27,45; 46,69</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>25,36; 42,15</t>
+          <t>21,24; 41,24</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>20,56; 33,73</t>
+          <t>22,56; 39,98</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>19,73; 30,96</t>
+          <t>19,58; 35,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>19,16; 30,81</t>
+          <t>21,59; 41,05</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>28,77; 39,31</t>
+          <t>26,78; 38,84</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>18,21; 27,19</t>
+          <t>24,26; 36,61</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>23,77; 34,38</t>
+          <t>20,25; 30,93</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>26,07; 35,09</t>
+          <t>25,78; 38,67</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>15,83; 31,7</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>28,51; 40,41</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>24,51; 36,75</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>23,39; 33,35</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>24,4; 34,63</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>21,4; 34,98</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>24,78%</t>
+          <t>42,17%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>28,27%</t>
+          <t>38,83%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>25,09%</t>
+          <t>43,67%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>30,83%</t>
+          <t>41,27%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>39,28%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>27,64%</t>
+          <t>42,4%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>27,97%</t>
+          <t>44,88%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>24,91%</t>
+          <t>40,45%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>26,39%</t>
+          <t>37,7%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>44,4%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>42,29%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>42,0%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>42,02%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>39,4%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>41,68%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +2265,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>19,36; 30,02</t>
+          <t>33,4; 51,19</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>21,99; 37,02</t>
+          <t>29,27; 47,44</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>19,67; 31,96</t>
+          <t>35,85; 51,92</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>25,3; 37,65</t>
+          <t>33,09; 51,72</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>16,91; 26,76</t>
+          <t>29,66; 49,53</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>22,53; 32,63</t>
+          <t>35,72; 48,83</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>23,72; 32,72</t>
+          <t>38,52; 51,54</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>20,99; 30,35</t>
+          <t>34,5; 46,57</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>22,38; 30,41</t>
+          <t>31,59; 44,03</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>35,44; 54,09</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>36,73; 48,63</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>36,93; 48,14</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>37,47; 47,47</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>34,36; 45,34</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>34,91; 48,86</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2343,82 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>48,06%</t>
+          <t>22,15%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>38,97%</t>
+          <t>32,93%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>40,7%</t>
+          <t>26,4%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>43,68%</t>
+          <t>32,2%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>44,42%</t>
+          <t>29,54%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>44,21%</t>
+          <t>25,6%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>45,75%</t>
+          <t>24,66%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>41,78%</t>
+          <t>34,25%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>42,5%</t>
+          <t>30,26%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>32,88%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>23,87%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>28,61%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>30,42%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>31,18%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>31,1%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2431,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>42,11; 54,98</t>
+          <t>15,9; 29,0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>31,29; 47,52</t>
+          <t>25,45; 41,98</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>33,68; 47,16</t>
+          <t>20,61; 33,4</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>37,53; 50,09</t>
+          <t>23,96; 39,43</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>38,65; 51,15</t>
+          <t>20,47; 40,25</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>38,71; 50,21</t>
+          <t>20,46; 31,41</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>41,07; 50,61</t>
+          <t>19,58; 30,62</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>36,9; 46,56</t>
+          <t>28,8; 39,98</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>38,07; 47,07</t>
+          <t>24,6; 36,45</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>23,5; 40,7</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>19,72; 28,34</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>23,45; 33,43</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>25,93; 34,69</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>26,5; 35,99</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>24,42; 37,73</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2509,82 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>27,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>32,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>34,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>25,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>33,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>28,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>26,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>33,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>31,11%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1863,104 +2597,164 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>21,74; 33,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>25,8; 39,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>27,22; 42,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>20,16; 31,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>27,72; 40,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>23,33; 33,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>22,11; 30,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>28,94; 37,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>27,09; 35,47</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>31,34%</t>
+          <t>25,19%</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>20,27%</t>
+          <t>28,14%</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>27,64%</t>
+          <t>24,38%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>22,54%</t>
+          <t>35,68%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>17,32%</t>
+          <t>23,47%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>30,32%</t>
+          <t>30,24%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>26,85%</t>
+          <t>21,71%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>28,05%</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>29,0%</t>
+          <t>19,97%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>24,73%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>27,83%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>24,83%</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>26,26%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>27,74%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>24,07%</t>
         </is>
       </c>
     </row>
@@ -1973,47 +2767,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>24,18; 42,59</t>
+          <t>19,8; 31,67</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>14,43; 27,41</t>
+          <t>21,61; 36,5</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>21,44; 34,37</t>
+          <t>19,0; 29,86</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>16,0; 30,21</t>
+          <t>26,94; 48,21</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>12,0; 24,29</t>
+          <t>15,65; 33,54</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>23,94; 37,64</t>
+          <t>24,55; 36,33</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>21,34; 32,65</t>
+          <t>16,72; 27,29</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>14,73; 23,11</t>
+          <t>23,16; 33,77</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>24,27; 33,92</t>
+          <t>15,31; 25,6</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>17,46; 33,21</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>23,81; 32,48</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>20,9; 29,81</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>22,81; 30,45</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>23,04; 35,41</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>18,73; 30,69</t>
         </is>
       </c>
     </row>
@@ -2021,52 +2845,82 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>43,08%</t>
+          <t>47,43%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>38,77%</t>
+          <t>38,33%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>34,65%</t>
+          <t>40,17%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>44,9%</t>
+          <t>33,57%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>46,55%</t>
+          <t>49,32%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>46,46%</t>
+          <t>43,95%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>44,01%</t>
+          <t>43,55%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>42,53%</t>
+          <t>44,14%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>40,65%</t>
+          <t>50,86%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>47,38%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>45,61%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>41,01%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>42,21%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>42,3%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>48,39%</t>
         </is>
       </c>
     </row>
@@ -2079,47 +2933,77 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>33,84; 50,92</t>
+          <t>40,3; 53,77</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>30,89; 46,74</t>
+          <t>31,16; 45,86</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>28,22; 41,16</t>
+          <t>33,22; 46,15</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>37,05; 53,36</t>
+          <t>26,83; 41,15</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>38,8; 54,71</t>
+          <t>38,57; 59,7</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>39,6; 53,25</t>
+          <t>37,39; 49,78</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>38,67; 50,36</t>
+          <t>37,35; 50,21</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>36,92; 48,34</t>
+          <t>38,62; 49,34</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>35,5; 45,43</t>
+          <t>44,24; 57,71</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>38,27; 57,1</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>41,16; 50,7</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>35,96; 45,96</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>37,82; 46,44</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>36,77; 47,3</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>41,22; 55,23</t>
         </is>
       </c>
     </row>
@@ -2127,52 +3011,82 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>25,58%</t>
+          <t>27,38%</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>40,96%</t>
+          <t>33,54%</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>37,71%</t>
+          <t>35,45%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>32,55%</t>
+          <t>30,76%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>36,13%</t>
+          <t>27,22%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>23,22%</t>
+          <t>25,81%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>29,14%</t>
+          <t>34,74%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>38,63%</t>
+          <t>27,82%</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>30,35%</t>
+          <t>29,18%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>27,89%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>26,56%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>34,16%</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>31,53%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>29,96%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>27,54%</t>
         </is>
       </c>
     </row>
@@ -2185,104 +3099,160 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>19,08; 32,48</t>
+          <t>21,72; 33,7</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>33,23; 49,64</t>
+          <t>27,35; 40,88</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>31,6; 44,67</t>
+          <t>28,64; 42,84</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>25,24; 39,61</t>
+          <t>23,22; 38,42</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>27,57; 43,9</t>
+          <t>19,18; 37,71</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>17,85; 29,59</t>
+          <t>20,82; 31,61</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>24,21; 33,97</t>
+          <t>28,7; 41,66</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>33,32; 44,79</t>
+          <t>22,67; 32,73</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>26,27; 34,79</t>
+          <t>23,5; 35,75</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>20,39; 36,62</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>22,66; 30,92</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>29,72; 39,16</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>27,25; 36,02</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>25,06; 34,96</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>21,36; 33,42</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>23,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>28,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>17,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>24,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>25,82%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2295,100 +3265,164 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>15,4; 37,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>12,87; 27,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>19,81; 37,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>12,78; 26,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>11,72; 24,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>17,9; 30,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>15,93; 27,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>14,13; 23,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>20,52; 31,77</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>50,42%</t>
+          <t>31,08%</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>44,34%</t>
+          <t>20,47%</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>37,98%</t>
+          <t>27,77%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>51,02%</t>
+          <t>32,15%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>52,31%</t>
+          <t>31,34%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>50,29%</t>
+          <t>20,82%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>50,75%</t>
+          <t>17,52%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>49,03%</t>
+          <t>30,05%</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>44,88%</t>
+          <t>27,51%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>28,39%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>25,86%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>19,04%</t>
+        </is>
+      </c>
+      <c r="O36" s="2" t="inlineStr">
+        <is>
+          <t>28,93%</t>
+        </is>
+      </c>
+      <c r="P36" s="2" t="inlineStr">
+        <is>
+          <t>29,78%</t>
+        </is>
+      </c>
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>29,81%</t>
         </is>
       </c>
     </row>
@@ -2401,47 +3435,77 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>39,91; 60,25</t>
+          <t>23,36; 40,83</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>31,41; 54,65</t>
+          <t>14,39; 26,87</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>29,6; 47,25</t>
+          <t>21,84; 34,66</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>42,37; 59,15</t>
+          <t>24,76; 41,88</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>42,98; 62,25</t>
+          <t>21,79; 42,62</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>42,4; 59,72</t>
+          <t>15,03; 27,05</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>44,01; 57,62</t>
+          <t>12,37; 24,2</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>41,9; 56,42</t>
+          <t>24,03; 37,32</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>38,89; 52,05</t>
+          <t>19,67; 36,55</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>20,91; 36,96</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>20,92; 31,66</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>15,01; 24,31</t>
+        </is>
+      </c>
+      <c r="O37" s="2" t="inlineStr">
+        <is>
+          <t>24,31; 33,54</t>
+        </is>
+      </c>
+      <c r="P37" s="2" t="inlineStr">
+        <is>
+          <t>24,38; 36,24</t>
+        </is>
+      </c>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>23,15; 36,16</t>
         </is>
       </c>
     </row>
@@ -2449,52 +3513,82 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>26,45%</t>
+          <t>43,15%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>35,95%</t>
+          <t>38,58%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>34,01%</t>
+          <t>34,24%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>30,08%</t>
+          <t>34,56%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>30,15%</t>
+          <t>43,31%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>25,59%</t>
+          <t>45,86%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>28,49%</t>
+          <t>45,89%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>32,54%</t>
+          <t>46,47%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>29,29%</t>
+          <t>42,7%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>50,13%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>44,53%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>42,12%</t>
+        </is>
+      </c>
+      <c r="O38" s="2" t="inlineStr">
+        <is>
+          <t>40,46%</t>
+        </is>
+      </c>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t>38,71%</t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>46,85%</t>
         </is>
       </c>
     </row>
@@ -2507,104 +3601,160 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>19,35; 35,28</t>
+          <t>34,72; 51,31</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>25,73; 53,26</t>
+          <t>31,04; 46,59</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>25,55; 43,14</t>
+          <t>28,22; 40,88</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>23,3; 38,36</t>
+          <t>25,17; 44,37</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>21,96; 38,58</t>
+          <t>33,2; 54,23</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>19,01; 32,73</t>
+          <t>38,74; 54,08</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>23,13; 34,16</t>
+          <t>38,49; 54,5</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>25,82; 41,23</t>
+          <t>39,87; 53,47</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>24,03; 34,85</t>
+          <t>34,25; 53,04</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>41,22; 59,26</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>39,37; 49,7</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>36,41; 47,93</t>
+        </is>
+      </c>
+      <c r="O39" s="2" t="inlineStr">
+        <is>
+          <t>35,91; 45,72</t>
+        </is>
+      </c>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>32,84; 45,77</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>40,44; 54,69</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>28,1%</t>
+          <t>25,77%</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>22,54%</t>
+          <t>40,96%</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>28,55%</t>
+          <t>37,99%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>29,6%</t>
+          <t>33,29%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>23,4%</t>
+          <t>25,35%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>27,96%</t>
+          <t>33,32%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>28,86%</t>
+          <t>36,59%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>22,98%</t>
+          <t>23,47%</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>28,25%</t>
+          <t>29,8%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>21,48%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>29,61%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>38,84%</t>
+        </is>
+      </c>
+      <c r="O40" s="2" t="inlineStr">
+        <is>
+          <t>30,61%</t>
+        </is>
+      </c>
+      <c r="P40" s="2" t="inlineStr">
+        <is>
+          <t>31,51%</t>
+        </is>
+      </c>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>23,34%</t>
         </is>
       </c>
     </row>
@@ -2617,47 +3767,77 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>24,63; 32,39</t>
+          <t>19,31; 32,98</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>19,45; 25,92</t>
+          <t>32,96; 49,58</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>25,5; 32,84</t>
+          <t>31,69; 44,87</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>26,71; 32,88</t>
+          <t>24,82; 42,07</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>20,95; 26,45</t>
+          <t>16,46; 34,96</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>25,56; 30,55</t>
+          <t>26,35; 40,63</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>26,47; 31,75</t>
+          <t>28,92; 43,91</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>20,87; 25,26</t>
+          <t>17,51; 29,1</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>26,2; 30,58</t>
+          <t>21,57; 37,69</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>14,4; 29,76</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>24,98; 34,8</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>33,16; 45,18</t>
+        </is>
+      </c>
+      <c r="O41" s="2" t="inlineStr">
+        <is>
+          <t>26,38; 34,8</t>
+        </is>
+      </c>
+      <c r="P41" s="2" t="inlineStr">
+        <is>
+          <t>25,55; 36,75</t>
+        </is>
+      </c>
+      <c r="Q41" s="2" t="inlineStr">
+        <is>
+          <t>17,85; 30,1</t>
         </is>
       </c>
     </row>
@@ -2665,52 +3845,82 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>48,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>41,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>39,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>44,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>47,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>45,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>46,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>44,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>42,48%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2723,100 +3933,164 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>43,97; 52,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>37,94; 45,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>36,37; 43,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>41,13; 47,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>43,86; 50,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>42,11; 48,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>43,65; 48,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>41,59; 46,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>40,11; 44,69</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>25,23%</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>35,73%</t>
+          <t>20,31%</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>31,69%</t>
+          <t>28,25%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>26,07%</t>
+          <t>17,78%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>29,56%</t>
+          <t>26,82%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>26,96%</t>
+          <t>18,0%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>24,93%</t>
+          <t>18,07%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>32,56%</t>
+          <t>25,07%</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>29,27%</t>
+          <t>22,77%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>16,71%</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>21,16%</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>19,0%</t>
+        </is>
+      </c>
+      <c r="O44" s="2" t="inlineStr">
+        <is>
+          <t>26,46%</t>
+        </is>
+      </c>
+      <c r="P44" s="2" t="inlineStr">
+        <is>
+          <t>20,59%</t>
+        </is>
+      </c>
+      <c r="Q44" s="2" t="inlineStr">
+        <is>
+          <t>21,01%</t>
         </is>
       </c>
     </row>
@@ -2829,63 +4103,1266 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>20,95; 26,8</t>
+          <t>17,15; 40,77</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>31,99; 40,09</t>
+          <t>13,59; 28,32</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>28,43; 34,9</t>
+          <t>20,88; 38,73</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>23,33; 29,06</t>
+          <t>10,49; 27,35</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>26,69; 32,55</t>
+          <t>17,57; 38,85</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>24,67; 29,61</t>
+          <t>12,61; 23,72</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>22,86; 26,81</t>
+          <t>11,92; 24,84</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>30,2; 35,17</t>
+          <t>19,2; 32,66</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>27,1; 31,19</t>
+          <t>15,39; 32,26</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>8,71; 30,45</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>15,98; 28,08</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>14,85; 23,91</t>
+        </is>
+      </c>
+      <c r="O45" s="2" t="inlineStr">
+        <is>
+          <t>22,0; 32,77</t>
+        </is>
+      </c>
+      <c r="P45" s="2" t="inlineStr">
+        <is>
+          <t>14,92; 27,08</t>
+        </is>
+      </c>
+      <c r="Q45" s="2" t="inlineStr">
+        <is>
+          <t>14,05; 29,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>48,06%</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>44,95%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>38,34%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>50,35%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>49,21%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>51,15%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>52,01%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>49,37%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>51,63%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>56,56%</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>49,8%</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>49,07%</t>
+        </is>
+      </c>
+      <c r="O46" s="2" t="inlineStr">
+        <is>
+          <t>44,52%</t>
+        </is>
+      </c>
+      <c r="P46" s="2" t="inlineStr">
+        <is>
+          <t>51,07%</t>
+        </is>
+      </c>
+      <c r="Q46" s="2" t="inlineStr">
+        <is>
+          <t>53,44%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>37,4; 57,77</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>34,88; 54,31</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>29,87; 46,91</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>39,37; 62,05</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>35,03; 62,47</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>42,95; 59,16</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>43,01; 60,9</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>40,8; 57,77</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>40,74; 61,8</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>43,6; 70,12</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>43,6; 55,93</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>42,15; 55,39</t>
+        </is>
+      </c>
+      <c r="O47" s="2" t="inlineStr">
+        <is>
+          <t>38,9; 50,03</t>
+        </is>
+      </c>
+      <c r="P47" s="2" t="inlineStr">
+        <is>
+          <t>43,43; 59,75</t>
+        </is>
+      </c>
+      <c r="Q47" s="2" t="inlineStr">
+        <is>
+          <t>43,0; 62,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>26,71%</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>34,74%</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>33,41%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>31,87%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>23,96%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>30,85%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>29,91%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>25,56%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>25,6%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>26,72%</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>29,04%</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>31,93%</t>
+        </is>
+      </c>
+      <c r="O48" s="2" t="inlineStr">
+        <is>
+          <t>29,01%</t>
+        </is>
+      </c>
+      <c r="P48" s="2" t="inlineStr">
+        <is>
+          <t>28,34%</t>
+        </is>
+      </c>
+      <c r="Q48" s="2" t="inlineStr">
+        <is>
+          <t>25,55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>19,04; 34,59</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>26,2; 49,16</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>25,26; 41,98</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>20,65; 43,02</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>13,9; 35,05</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>24,09; 37,83</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>22,76; 38,71</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>19,14; 32,87</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>17,47; 34,9</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>16,51; 39,74</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>23,89; 34,62</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>26,59; 39,94</t>
+        </is>
+      </c>
+      <c r="O49" s="2" t="inlineStr">
+        <is>
+          <t>23,8; 34,02</t>
+        </is>
+      </c>
+      <c r="P49" s="2" t="inlineStr">
+        <is>
+          <t>21,35; 35,3</t>
+        </is>
+      </c>
+      <c r="Q49" s="2" t="inlineStr">
+        <is>
+          <t>18,09; 34,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>28,8%</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>23,08%</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>28,36%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>26,71%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>29,96%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>28,82%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>23,35%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>28,07%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>26,25%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>24,39%</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>28,81%</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>23,22%</t>
+        </is>
+      </c>
+      <c r="O52" s="2" t="inlineStr">
+        <is>
+          <t>28,21%</t>
+        </is>
+      </c>
+      <c r="P52" s="2" t="inlineStr">
+        <is>
+          <t>26,47%</t>
+        </is>
+      </c>
+      <c r="Q52" s="2" t="inlineStr">
+        <is>
+          <t>27,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>25,29; 32,53</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>19,95; 26,71</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>25,24; 32,31</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>22,94; 30,6</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>25,26; 36,54</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>26,47; 31,86</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>20,84; 26,08</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>25,48; 30,94</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>23,18; 29,8</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>20,85; 28,52</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>26,73; 31,28</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>21,15; 25,49</t>
+        </is>
+      </c>
+      <c r="O53" s="2" t="inlineStr">
+        <is>
+          <t>26,18; 30,62</t>
+        </is>
+      </c>
+      <c r="P53" s="2" t="inlineStr">
+        <is>
+          <t>23,96; 29,09</t>
+        </is>
+      </c>
+      <c r="Q53" s="2" t="inlineStr">
+        <is>
+          <t>23,92; 30,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>47,3%</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>41,91%</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>39,34%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>38,45%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>44,08%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>44,69%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>46,9%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>44,89%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>44,35%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>47,28%</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>45,96%</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>44,47%</t>
+        </is>
+      </c>
+      <c r="O54" s="2" t="inlineStr">
+        <is>
+          <t>42,18%</t>
+        </is>
+      </c>
+      <c r="P54" s="2" t="inlineStr">
+        <is>
+          <t>41,47%</t>
+        </is>
+      </c>
+      <c r="Q54" s="2" t="inlineStr">
+        <is>
+          <t>45,69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>43,51; 51,32</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>37,87; 46,09</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>35,93; 42,63</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>33,2; 42,82</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>38,53; 49,62</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>41,62; 47,92</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>43,59; 49,97</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>41,77; 47,82</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>40,64; 48,03</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>42,78; 52,18</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>43,64; 48,59</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>41,55; 46,71</t>
+        </is>
+      </c>
+      <c r="O55" s="2" t="inlineStr">
+        <is>
+          <t>40,05; 44,44</t>
+        </is>
+      </c>
+      <c r="P55" s="2" t="inlineStr">
+        <is>
+          <t>38,31; 44,21</t>
+        </is>
+      </c>
+      <c r="Q55" s="2" t="inlineStr">
+        <is>
+          <t>41,88; 49,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>23,9%</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>35,01%</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>32,3%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>34,84%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>25,96%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>26,49%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>29,75%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>27,04%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>29,4%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>28,33%</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>25,23%</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>32,31%</t>
+        </is>
+      </c>
+      <c r="O56" s="2" t="inlineStr">
+        <is>
+          <t>29,61%</t>
+        </is>
+      </c>
+      <c r="P56" s="2" t="inlineStr">
+        <is>
+          <t>32,06%</t>
+        </is>
+      </c>
+      <c r="Q56" s="2" t="inlineStr">
+        <is>
+          <t>27,15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>21,11; 27,19</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>31,34; 39,32</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>29,03; 35,64</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>30,35; 41,04</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>21,47; 30,89</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>23,78; 29,3</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>26,86; 32,84</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>24,41; 29,71</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>26,02; 32,41</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>24,2; 32,35</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>23,1; 27,16</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>29,96; 34,93</t>
+        </is>
+      </c>
+      <c r="O57" s="2" t="inlineStr">
+        <is>
+          <t>27,57; 31,7</t>
+        </is>
+      </c>
+      <c r="P57" s="2" t="inlineStr">
+        <is>
+          <t>29,37; 35,94</t>
+        </is>
+      </c>
+      <c r="Q57" s="2" t="inlineStr">
+        <is>
+          <t>24,11; 29,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P24_6-Edad-long_dif.xlsx
+++ b/data/long_dif/P24_6-Edad-long_dif.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -839,7 +839,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -998,7 +998,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1479,7 +1479,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1801,7 +1801,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1960,7 +1960,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -2282,7 +2282,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2441,7 +2441,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -2763,7 +2763,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -2922,7 +2922,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -3244,7 +3244,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -3403,7 +3403,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -3725,7 +3725,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -3884,7 +3884,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
